--- a/biology/Botanique/Kalanchoe_crenata/Kalanchoe_crenata.xlsx
+++ b/biology/Botanique/Kalanchoe_crenata/Kalanchoe_crenata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kalanchoe crenata Haw. est une plante succulente à fleurs de la famille des Crassulacées originaire de Madagascar.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kalanchoe crenata est présente en Afrique tropicale, du Kenya à la Tanzanie, en Ouganda, au Burundi, en République centrafricaine,au  Rwanda, au Zaïre, en Guinée, en Sierra Leone, en Angola, mais aussi en Afrique du Sud [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kalanchoe crenata est présente en Afrique tropicale, du Kenya à la Tanzanie, en Ouganda, au Burundi, en République centrafricaine,au  Rwanda, au Zaïre, en Guinée, en Sierra Leone, en Angola, mais aussi en Afrique du Sud .
 On la retrouve sous forme d'arbrisseaux pouvant atteindre 60 à 80 cm de haut.
 Les feuilles, persistantes, sont vert foncé, de forme ovale et à bordure crénelée. Le pétiole mesure jusqu'à 4 cm de long.
-La floraison a lieu en automne et en hiver. Les fleurs, organisées en panicules orientées vers le haut, possèdent 4 pétales de couleur rouge orangé [2].
+La floraison a lieu en automne et en hiver. Les fleurs, organisées en panicules orientées vers le haut, possèdent 4 pétales de couleur rouge orangé .
 Kalanchoe crenata possède une bonne aptitude à la multiplication végétative.
 </t>
         </is>
@@ -546,12 +560,14 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kalanchoe crenata est une plante ornementale. Ses propriétés trouvent également de nombreuses applications en médecine traditionnelle.
 Des recherches en phytochimie ont rapporté la présence d'alcaloïdes dans les feuilles leur conférant un pouvoir analgésique. Les feuilles sont aussi connues pour leurs propriétés antiseptiques, cicatrisantes et anti-inflammatoires. Une fois bouillies, elles sont utilisées comme sédatif ainsi que dans le traitement de l'asthme.
 La décoction de l'ensemble de la plante est employé comme vermifuge.
-La décoction de racine est quant à elle utilisée par les femmes enceintes comme tonifiant [3].
+La décoction de racine est quant à elle utilisée par les femmes enceintes comme tonifiant .
 Des études récentes ont permis de mettre en évidence les effets coccidiostatiques et coccidicides des feuilles de Kalanchoe crenata.
 </t>
         </is>
